--- a/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
+++ b/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step03_TrainNeuralNetwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step04_HyperparameterSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752716C2-6531-4B1E-A95F-A79EEAA87B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE462A97-DC99-4D41-A6E1-AE81605EDC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="HyperparameterSurveys" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="38">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -111,42 +111,15 @@
     <t>??</t>
   </si>
   <si>
-    <t>Neural Network File</t>
-  </si>
-  <si>
-    <t>NeuralNetworkOnly_ID01.mat</t>
-  </si>
-  <si>
-    <t>Initial Neural Network</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>NeuralNetworkOnly_ID02.mat</t>
-  </si>
-  <si>
-    <t>NeuralNetworkOnly_ID03.mat</t>
-  </si>
-  <si>
     <t>[28*28 50 25 10]</t>
   </si>
   <si>
     <t>Time to train (hr)</t>
   </si>
   <si>
-    <t>NeuralNetworkOnly_ID04.mat</t>
-  </si>
-  <si>
     <t>varies</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>NeuralNetworkOnly_ID05.mat</t>
-  </si>
-  <si>
     <t>activation function</t>
   </si>
   <si>
@@ -156,7 +129,28 @@
     <t>[ReLU ReLU Sigmoid]</t>
   </si>
   <si>
-    <t>NeuralNetwork_784_50_10_ReLU_ReLU_Sigmoid.mat</t>
+    <t>outputFile</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario1</t>
+  </si>
+  <si>
+    <t>trainingDataFile</t>
+  </si>
+  <si>
+    <t>neuralNetworkFile</t>
+  </si>
+  <si>
+    <t>TrainingAndTestDataScenario3</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario1</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario2</t>
+  </si>
+  <si>
+    <t>TrainingAndTestDataScenario1</t>
   </si>
 </sst>
 </file>
@@ -167,7 +161,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +173,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -542,158 +542,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2242A2-D373-44A6-9DF2-E2416E056A77}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F1" s="7"/>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="E3" s="6">
+        <f>D3/60/60</f>
+        <v>8.3055555555555556E-3</v>
+      </c>
+      <c r="F3">
+        <v>50000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1">
-        <v>29.9</v>
-      </c>
-      <c r="D3" s="6">
-        <f>C3/60/60</f>
-        <v>8.3055555555555556E-3</v>
-      </c>
-      <c r="E3">
-        <v>50000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" t="b">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="b">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <v>45053</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1345</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" ref="D4:D32" si="0">C4/60/60</f>
-        <v>0.37361111111111112</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E32" si="0">D4/60/60</f>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -723,29 +734,24 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>54.1</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>1.5027777777777779E-2</v>
-      </c>
-      <c r="E5">
+      <c r="S4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2000</v>
       </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
@@ -758,12 +764,12 @@
       <c r="J5" t="s">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
       <c r="M5" t="s">
         <v>5</v>
       </c>
@@ -773,23 +779,18 @@
       <c r="O5" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>13.4</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>3.7222222222222223E-3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -806,12 +807,12 @@
       <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>10</v>
       </c>
-      <c r="L6" t="s">
-        <v>5</v>
-      </c>
       <c r="M6" t="s">
         <v>5</v>
       </c>
@@ -821,23 +822,18 @@
       <c r="O6" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>2.5277777777777777E-3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -854,12 +850,12 @@
       <c r="J7" t="s">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
       <c r="M7" t="s">
         <v>5</v>
       </c>
@@ -869,27 +865,22 @@
       <c r="O7" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>195.6</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>5.4333333333333331E-2</v>
-      </c>
-      <c r="E8">
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>50000</v>
       </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
@@ -917,23 +908,18 @@
       <c r="O8" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>201.5</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5972222222222222E-2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
+      <c r="P8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
@@ -965,23 +951,18 @@
       <c r="O9" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1839</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.51083333333333336</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
+      <c r="P9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -1001,35 +982,30 @@
       <c r="K10" t="s">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="M10" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" t="s">
         <v>5</v>
       </c>
       <c r="O10" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4413</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2258333333333333</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -1046,45 +1022,40 @@
       <c r="J11" t="s">
         <v>5</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11">
         <v>32</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2</v>
       </c>
-      <c r="M11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11">
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
         <v>10</v>
       </c>
-      <c r="O11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R11" s="5">
+      <c r="P11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="5">
         <v>45054</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>209</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>5.8055555555555555E-2</v>
-      </c>
-      <c r="E12">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>2000</v>
       </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
       <c r="G12" t="s">
         <v>5</v>
       </c>
@@ -1112,26 +1083,21 @@
       <c r="O12" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>71</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>1.9722222222222221E-2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
+      <c r="P12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
@@ -1163,30 +1129,25 @@
       <c r="O13" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1655</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.4597222222222222</v>
-      </c>
-      <c r="E14">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>50000</v>
       </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
@@ -1202,47 +1163,39 @@
       <c r="K14" t="s">
         <v>5</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14">
         <v>20</v>
       </c>
-      <c r="M14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14">
+      <c r="N14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14">
+      <c r="P14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14">
         <v>0.87180000000000002</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.88370000000000004</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>17648.3</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>4.9023055555555555</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
+      <c r="S14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -1262,44 +1215,36 @@
       <c r="K15" t="s">
         <v>5</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15">
         <v>100</v>
       </c>
-      <c r="M15" t="s">
-        <v>5</v>
-      </c>
       <c r="N15" t="s">
         <v>5</v>
       </c>
       <c r="O15" t="s">
         <v>5</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15">
         <v>0.91400000000000003</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.91679999999999995</v>
       </c>
-      <c r="R15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1">
-        <v>6221</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7280555555555557</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
+      <c r="S15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -1319,385 +1264,352 @@
       <c r="K16" t="s">
         <v>5</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16">
         <v>10</v>
       </c>
-      <c r="M16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16">
+      <c r="N16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16">
         <v>10</v>
       </c>
-      <c r="O16" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16">
+      <c r="P16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16">
         <v>0.91910000000000003</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.91969999999999996</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="S16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="R17">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="S17" s="5">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>1.4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>150</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>0.5917</v>
+      </c>
+      <c r="R18">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+      <c r="P19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="R19">
+        <v>0.623</v>
+      </c>
+      <c r="S19" s="5">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>0.4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="R20">
+        <v>0.67810000000000004</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4083</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>1.1341666666666665</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17">
-        <v>0.91930000000000001</v>
-      </c>
-      <c r="Q17">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="R17" s="5">
-        <v>45055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1">
-        <v>28021</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>7.783611111111111</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>1.4</v>
-      </c>
-      <c r="K18" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>150</v>
-      </c>
-      <c r="M18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18">
-        <v>0.5917</v>
-      </c>
-      <c r="Q18">
-        <v>0.60329999999999995</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3497</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.97138888888888886</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
-      <c r="M19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19">
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21">
         <v>8</v>
       </c>
-      <c r="O19" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19">
-        <v>0.61229999999999996</v>
-      </c>
-      <c r="Q19">
-        <v>0.623</v>
-      </c>
-      <c r="R19" s="5">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>9846</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>2.7349999999999999</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>0.4</v>
-      </c>
-      <c r="K20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>50</v>
-      </c>
-      <c r="M20" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>0.66659999999999997</v>
-      </c>
-      <c r="Q20">
-        <v>0.67810000000000004</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1350</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21">
-        <v>32</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21">
-        <v>8</v>
-      </c>
-      <c r="O21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="6">
+      <c r="P21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="I1:O1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
+++ b/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step04_HyperparameterSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C3DAA8-C9CF-4689-80C3-3A39D1BFD965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FB9482-2D0A-4387-9454-F72FC5BB49CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="5235" windowWidth="21600" windowHeight="15435" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step04A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="35">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -128,7 +128,19 @@
     <t>[0.01,0.5]</t>
   </si>
   <si>
-    <t xml:space="preserve">best eta = </t>
+    <t>HyperparameterSweepResultsScenario3</t>
+  </si>
+  <si>
+    <t>[0.005,0.5]</t>
+  </si>
+  <si>
+    <t>best eta = 0.22</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario2</t>
+  </si>
+  <si>
+    <t>best eta = 0.0757</t>
   </si>
 </sst>
 </file>
@@ -522,7 +534,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,14 +707,58 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14500</v>
+      </c>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0277777777777777</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="N5">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="O5" s="5">
+        <v>45072</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">

--- a/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
+++ b/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step04_HyperparameterSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FB9482-2D0A-4387-9454-F72FC5BB49CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A0D4DB-FDEA-481E-9418-2D4EA22BC687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="-8175" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step04A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="40">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>best eta = 0.0757</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario4</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario3</t>
+  </si>
+  <si>
+    <t>[0.0005,0.04]</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario5</t>
+  </si>
+  <si>
+    <t>TrainingAndTestDataScenario4</t>
   </si>
 </sst>
 </file>
@@ -200,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -217,6 +232,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +550,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +558,7 @@
     <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -762,17 +779,99 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15748</v>
+      </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3744444444444444</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="O6" s="5">
+        <v>45089</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15933</v>
+      </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.4258333333333333</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.9395</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="O7" s="5">
+        <v>45090</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">

--- a/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
+++ b/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step04_HyperparameterSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A0D4DB-FDEA-481E-9418-2D4EA22BC687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F401F4B-5C9A-47FE-BF1D-C2EC8BBE45A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8175" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step04A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="44">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>TrainingAndTestDataScenario4</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario6</t>
+  </si>
+  <si>
+    <t>TrainingAndTestDataScenario5</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario7</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario4</t>
   </si>
 </sst>
 </file>
@@ -215,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,7 +244,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +561,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,10 +827,10 @@
       <c r="L6" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6">
         <v>0.93010000000000004</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6">
         <v>0.93100000000000005</v>
       </c>
       <c r="O6" s="5">
@@ -864,10 +875,10 @@
       <c r="L7" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7">
         <v>0.9395</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7">
         <v>0.93710000000000004</v>
       </c>
       <c r="O7" s="5">
@@ -875,13 +886,63 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16333</v>
+      </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.536944444444444</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="O8" s="5">
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="6">
         <f t="shared" si="0"/>

--- a/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
+++ b/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step04_HyperparameterSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F401F4B-5C9A-47FE-BF1D-C2EC8BBE45A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F9B68-A5D2-4D1D-BCD4-3E839E91F054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="-8325" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step04A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="48">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>NeuralNetworkScenario4</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario8</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario5</t>
+  </si>
+  <si>
+    <t>[0.001,0.01]</t>
+  </si>
+  <si>
+    <t>[0.00001,0.0005]</t>
   </si>
 </sst>
 </file>
@@ -561,7 +573,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,22 +950,95 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>180</v>
+      </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0.313</v>
+      </c>
+      <c r="N9">
+        <v>0.255</v>
+      </c>
+      <c r="O9" s="5">
+        <v>45137</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7200</v>
+      </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>150</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="O10" s="5">
+        <v>45138</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">

--- a/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
+++ b/Applications/MNIST/Step04_HyperparameterSurvey/Step04_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step04_HyperparameterSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F9B68-A5D2-4D1D-BCD4-3E839E91F054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA4B14-E955-423C-A182-B6166B93FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8325" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="-8640" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step04A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -53,12 +53,6 @@
     <t>numConditions</t>
   </si>
   <si>
-    <t>used for loop</t>
-  </si>
-  <si>
-    <t>used parfor loop.  Plots don't appear</t>
-  </si>
-  <si>
     <t>errorFunctionID</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Time to train (hr)</t>
   </si>
   <si>
-    <t>varies</t>
-  </si>
-  <si>
     <t>outputFile</t>
   </si>
   <si>
@@ -180,6 +171,66 @@
   </si>
   <si>
     <t>[0.00001,0.0005]</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario9</t>
+  </si>
+  <si>
+    <t>best eta = 0.0005</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario10</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario6</t>
+  </si>
+  <si>
+    <t>[0.0005,0.05]</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario11</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario7</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario12</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario13</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario9</t>
+  </si>
+  <si>
+    <t>[0.0001,0.005]</t>
+  </si>
+  <si>
+    <t>[0.001,0.05]</t>
+  </si>
+  <si>
+    <t>best eta = 0.015</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario14</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario10</t>
+  </si>
+  <si>
+    <t>[0.0003,0.02]</t>
+  </si>
+  <si>
+    <t>best eta = 0.0031</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario11</t>
+  </si>
+  <si>
+    <t>HyperparameterSweepResultsScenario15</t>
+  </si>
+  <si>
+    <t>best eta = 0.0290</t>
   </si>
 </sst>
 </file>
@@ -274,9 +325,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +365,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -420,7 +471,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,7 +613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,17 +621,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2242A2-D373-44A6-9DF2-E2416E056A77}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" customWidth="1"/>
@@ -590,7 +641,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -600,46 +651,46 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>1</v>
@@ -650,13 +701,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>10.039999999999999</v>
@@ -669,13 +720,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>32</v>
@@ -696,15 +747,15 @@
         <v>45070</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -726,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>2</v>
@@ -747,18 +798,18 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="1">
         <v>14500</v>
@@ -777,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
         <v>2</v>
@@ -798,18 +849,18 @@
         <v>45072</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1">
         <v>15748</v>
@@ -828,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
@@ -851,10 +902,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -899,10 +950,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -947,13 +998,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>180</v>
@@ -972,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
         <v>2</v>
@@ -995,13 +1046,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>7200</v>
@@ -1020,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -1042,586 +1093,456 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>28298</v>
+      </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.8605555555555551</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0.68279999999999996</v>
+      </c>
+      <c r="N11">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1">
+        <v>57967</v>
+      </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.101944444444445</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="N12">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="O12" s="5">
+        <v>45140</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14463</v>
+      </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0175000000000001</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="N13">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="O13" s="5">
+        <v>45142</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6810</v>
+      </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.8916666666666666</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="O14" s="5">
+        <v>45143</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6351</v>
+      </c>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7641666666666667</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="N15">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="O15" s="5">
+        <v>45144</v>
+      </c>
+      <c r="P15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6719</v>
+      </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
+        <v>1.8663888888888889</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="N16">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="O16" s="5">
+        <v>45146</v>
+      </c>
+      <c r="P16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1">
+        <v>49370</v>
+      </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+        <v>13.71388888888889</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="N17">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="O17" s="5">
+        <v>45148</v>
+      </c>
+      <c r="P17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>10</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>30</v>
-      </c>
-      <c r="K27" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" t="s">
-        <v>2</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
-        <v>2</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>2</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30">
-        <v>10</v>
-      </c>
-      <c r="L30" t="s">
-        <v>2</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>32</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31" t="s">
-        <v>2</v>
-      </c>
-      <c r="O31" s="5">
-        <v>45054</v>
-      </c>
-      <c r="P31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <v>20</v>
-      </c>
-      <c r="L34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34">
-        <v>0.87180000000000002</v>
-      </c>
-      <c r="N34">
-        <v>0.88370000000000004</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35">
-        <v>100</v>
-      </c>
-      <c r="L35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="N35">
-        <v>0.91679999999999995</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K36">
-        <v>10</v>
-      </c>
-      <c r="L36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36">
-        <v>0.91910000000000003</v>
-      </c>
-      <c r="N36">
-        <v>0.91969999999999996</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K37">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37">
-        <v>0.91930000000000001</v>
-      </c>
-      <c r="N37">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="O37" s="5">
-        <v>45055</v>
-      </c>
-    </row>
-    <row r="38" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38">
-        <v>1.4</v>
-      </c>
-      <c r="J38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K38">
-        <v>150</v>
-      </c>
-      <c r="L38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38">
-        <v>0.5917</v>
-      </c>
-      <c r="N38">
-        <v>0.60329999999999995</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <v>5</v>
-      </c>
-      <c r="L39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M39">
-        <v>0.61229999999999996</v>
-      </c>
-      <c r="N39">
-        <v>0.623</v>
-      </c>
-      <c r="O39" s="5">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="40" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>0.4</v>
-      </c>
-      <c r="J40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40">
-        <v>50</v>
-      </c>
-      <c r="L40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M40">
-        <v>0.66659999999999997</v>
-      </c>
-      <c r="N40">
-        <v>0.67810000000000004</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41">
-        <v>32</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
